--- a/data/trans_camb/P54_A_5_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P54_A_5_R-Edad-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,12</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,12</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,35</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,35</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,66</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,66</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,65; -3,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,65; -3,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,95; -6,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,02; -5,32</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,99; -7,39</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,89; -7,62</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-25,1</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-25,1</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,37</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,37</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,05</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,05</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,19; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,68; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,18; -3,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,52; -3,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,85; -5,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,85; -5,26</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,72</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,72</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,2</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,2</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,69</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,69</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,73; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,3; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,02; -6,6</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,24; -6,88</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,5; -5,47</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,25; -5,43</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,07</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,07</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,27</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,24</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,45</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,36</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,42; -4,9</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,39; -4,9</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,48; -9,77</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,48; -7,29</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,99; -8,87</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,83; -7,39</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-87,51%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-91,88%</t>
         </is>
       </c>
     </row>
@@ -1198,7 +1198,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -52,68</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -69,77</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,99</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,99</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,3</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-18,17</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,14</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,93</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,29; -3,86</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,46; -3,83</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,59; -4,98</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,72; -7,18</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,09; -5,01</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,71; -6,52</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-89,73%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-93,84%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -1349,7 +1349,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; inf</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -44,22</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -1381,32 +1381,32 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,42</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,95</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,93</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,13</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,2</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,55</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,5; 3,29</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,35; 0,0</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,83; 4,4</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,54; 0,0</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,89; 1,55</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,31; -2,03</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-71,71%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-46,78%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-64,11%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1537,32 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,78</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,09</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,57</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,62</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,21</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,39</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,36; -6,92</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,89; -7,12</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,8; -9,18</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,96; -9,13</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,96; -9,33</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,05; -9,51</t>
         </is>
       </c>
     </row>
@@ -1613,32 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-97,4%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-96,18%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-96,56%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-96,72%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-98,13%</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -82,31</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
@@ -1661,22 +1661,29 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -84,4</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -86,27</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-99,04; -88,9</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -92,23</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
